--- a/資料/仕様書/Kitchen_Timer_仕様書v0.4.xlsx
+++ b/資料/仕様書/Kitchen_Timer_仕様書v0.4.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A6482-C880-4E05-8A48-4F0AB39088B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720FF67D-CEAF-4D2B-AB51-70A171547C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14400" windowHeight="15450" activeTab="3" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="1" r:id="rId1"/>
     <sheet name="構成図" sheetId="2" r:id="rId2"/>
     <sheet name="画面遷移" sheetId="3" r:id="rId3"/>
     <sheet name="変更履歴" sheetId="5" r:id="rId4"/>
-    <sheet name="ピン配置" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="ピン配置" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -779,22 +779,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RA3/CCP3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RA4/T0CKI/CCP4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RB2/SDA2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RB5/SCL2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RB6/CCP2/ICSPCLK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -851,10 +839,6 @@
   </si>
   <si>
     <t>VCC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIN4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -900,24 +884,6 @@
   </si>
   <si>
     <r>
-      <t>RB0/CCP1/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>RB4/</t>
     </r>
     <r>
@@ -931,24 +897,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>SCL1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>RB3/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCP1</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -981,23 +929,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SW2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SW1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIN17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIN18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RB0/CCP1/INT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1577,6 +1509,150 @@
   </si>
   <si>
     <t>PIN2/RA3/CCP3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIN11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RB0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CCP1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RB2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SDA2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RA3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCP3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RB5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/SCL2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB3/CCP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピン配置 修正</t>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1870,7 +1946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2006,18 +2082,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,6 +2090,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,6 +2120,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3120,67 +3199,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>54993</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFE242C-BDB0-4E01-912B-7D63035DDFA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="54993" y="9582150"/>
-          <a:ext cx="13699106" cy="5344886"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4054,8 +4072,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14086015" y="1860334"/>
-          <a:ext cx="6392226" cy="7772697"/>
+          <a:off x="14043593" y="1881145"/>
+          <a:ext cx="6363410" cy="7910369"/>
           <a:chOff x="440877" y="6038432"/>
           <a:chExt cx="4765696" cy="5913905"/>
         </a:xfrm>
@@ -4074,7 +4092,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4301,7 +4319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4357,7 +4375,10 @@
         </a:prstGeom>
         <a:ln w="76200">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4436,15 +4457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>212034</xdr:colOff>
+      <xdr:colOff>201705</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>362495</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3908</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>72887</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4459,15 +4480,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17101930" y="3558209"/>
-          <a:ext cx="3496635" cy="1219200"/>
+          <a:off x="17391529" y="3592606"/>
+          <a:ext cx="3578585" cy="1259541"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="76200">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4625,7 +4649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4707,14 +4731,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>86139</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581893</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4728,9 +4752,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14299096" y="5127988"/>
-          <a:ext cx="1834223" cy="808986"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14580468" y="6016724"/>
+          <a:ext cx="2009361" cy="1031776"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4761,15 +4785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96983</xdr:rowOff>
+      <xdr:colOff>669471</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>116018</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4783,9 +4807,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="16029709" y="3823856"/>
-          <a:ext cx="845128" cy="41563"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16535400" y="7059386"/>
+          <a:ext cx="818147" cy="51838"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4816,15 +4840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>13252</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>32472</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:colOff>147082</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4838,9 +4862,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16903148" y="4770783"/>
-          <a:ext cx="19220" cy="343351"/>
+        <a:xfrm flipH="1">
+          <a:off x="17330057" y="6791711"/>
+          <a:ext cx="54554" cy="343875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4928,9 +4952,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>238539</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -4951,8 +4975,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16459200" y="6685722"/>
-          <a:ext cx="343353" cy="1352927"/>
+          <a:off x="16965706" y="4807324"/>
+          <a:ext cx="122451" cy="3311033"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4982,14 +5006,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>403411</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
@@ -5005,9 +5029,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16651357" y="6665843"/>
-          <a:ext cx="390939" cy="1400514"/>
+        <a:xfrm flipH="1">
+          <a:off x="17342224" y="4829735"/>
+          <a:ext cx="251011" cy="3316330"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5198,6 +5222,67 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>217716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76074</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5FC91F-9FA3-446F-990B-354300A1FC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="326572" y="9878787"/>
+          <a:ext cx="18921966" cy="7919356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7172,14 +7257,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>118697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>118697</xdr:rowOff>
     </xdr:to>
@@ -7196,8 +7281,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6138863" y="1071197"/>
-          <a:ext cx="557212" cy="0"/>
+          <a:off x="5690152" y="1551588"/>
+          <a:ext cx="1407631" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7385,16 +7470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114667</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114667</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121236</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7409,8 +7494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2819400" y="3132187"/>
-          <a:ext cx="1183005" cy="0"/>
+          <a:off x="2010103" y="1546702"/>
+          <a:ext cx="726856" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7436,16 +7521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157898</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157898</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157899</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225592</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7460,8 +7545,59 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671283" y="726831"/>
-          <a:ext cx="0" cy="585787"/>
+          <a:off x="5697438" y="2942723"/>
+          <a:ext cx="0" cy="857251"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305372</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>305372</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155407</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF200E88-0877-49B3-B555-8F16C9D223D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2586359" y="2959146"/>
+          <a:ext cx="0" cy="770643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7488,31 +7624,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>167423</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>182327</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>167423</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145382</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線コネクタ 55">
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF200E88-0877-49B3-B555-8F16C9D223D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7593A576-D1D9-4746-B27B-B08A086C959A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5003192" y="955431"/>
-          <a:ext cx="0" cy="614363"/>
+        <a:xfrm flipH="1">
+          <a:off x="5396011" y="2973054"/>
+          <a:ext cx="288910" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7538,23 +7674,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312668</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>110541</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295883</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160273</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>110541</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183933</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135940</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56">
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7593A576-D1D9-4746-B27B-B08A086C959A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84021FC1-6FC2-48A4-9AA9-9E5B5D7D9A48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,59 +7698,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4460806" y="1291641"/>
-          <a:ext cx="166692" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>317989</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142509</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線コネクタ 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84021FC1-6FC2-48A4-9AA9-9E5B5D7D9A48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4466127" y="1552209"/>
-          <a:ext cx="482111" cy="0"/>
+          <a:off x="2565670" y="2956961"/>
+          <a:ext cx="212306" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7966,8 +8051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2108353" y="4213412"/>
-          <a:ext cx="359403" cy="141250"/>
+          <a:off x="2096659" y="4306957"/>
+          <a:ext cx="357455" cy="141250"/>
           <a:chOff x="3355212" y="3731942"/>
           <a:chExt cx="354101" cy="141250"/>
         </a:xfrm>
@@ -8145,8 +8230,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6824382" y="4213412"/>
-          <a:ext cx="359405" cy="141250"/>
+          <a:off x="6783457" y="4306957"/>
+          <a:ext cx="357455" cy="141250"/>
           <a:chOff x="3355212" y="3731942"/>
           <a:chExt cx="354101" cy="141250"/>
         </a:xfrm>
@@ -8325,6 +8410,168 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3474721" y="3250136"/>
+          <a:ext cx="101237" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97226</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AD9423-9C8E-453F-99B4-2237BC97C8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2028501" y="1526225"/>
+          <a:ext cx="1" cy="1692568"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>308843</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7402FB4-7787-4C85-9D0A-D17B3407DB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1596360" y="3185240"/>
+          <a:ext cx="426881" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223158</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="楕円 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF57938-5A81-4B4B-9D40-F1F4878C4953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613291" y="1487082"/>
           <a:ext cx="101237" cy="99060"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8725,15 +8972,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -8816,7 +9063,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
@@ -8846,7 +9093,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -8861,7 +9108,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -8928,13 +9175,13 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
@@ -8981,13 +9228,13 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
@@ -8999,7 +9246,7 @@
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
@@ -9037,7 +9284,7 @@
     <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73" s="2"/>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
@@ -9094,8 +9341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9115,18 +9362,18 @@
         <v>81</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
       <c r="AF6" s="44" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="AG6" s="44"/>
       <c r="AH6" s="44"/>
@@ -9134,14 +9381,14 @@
       <c r="AJ6" s="44"/>
     </row>
     <row r="7" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E7" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="I7" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="47"/>
+      <c r="E7" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="I7" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="48"/>
       <c r="AF7" s="39"/>
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
@@ -9149,49 +9396,49 @@
       <c r="AJ7" s="39"/>
     </row>
     <row r="8" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E8" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="E8" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
       <c r="C9" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="44"/>
-      <c r="I9" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="47"/>
+      <c r="I9" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="48"/>
       <c r="AE9" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
       <c r="AE10" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="E11" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="I11" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="45"/>
+      <c r="E11" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="I11" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="49"/>
       <c r="AE11" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="E12" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="46"/>
+      <c r="E12" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="50"/>
       <c r="AE12" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="25.5" x14ac:dyDescent="0.4">
@@ -9199,36 +9446,36 @@
         <v>3</v>
       </c>
       <c r="D13" s="44"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
       <c r="AE13" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="I14" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="51"/>
+      <c r="I14" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E15" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="I15" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="46"/>
+      <c r="E15" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="I15" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:36" ht="24" x14ac:dyDescent="0.4">
-      <c r="E16" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="46"/>
+      <c r="E16" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="44"/>
@@ -9242,11 +9489,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="AF6:AJ6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I11:J11"/>
@@ -9260,6 +9502,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9287,7 +9534,7 @@
     <row r="4" spans="2:33" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:33" x14ac:dyDescent="0.4">
       <c r="AC7" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.4">
@@ -9295,7 +9542,7 @@
         <v>52</v>
       </c>
       <c r="Y10" s="41" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.4">
@@ -9308,10 +9555,10 @@
     </row>
     <row r="12" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9324,10 +9571,10 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="14"/>
       <c r="U13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="Z13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9359,7 +9606,7 @@
     </row>
     <row r="16" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="14"/>
@@ -9372,7 +9619,7 @@
     </row>
     <row r="17" spans="2:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="16"/>
       <c r="AA17" s="17">
@@ -9397,17 +9644,17 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U18" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U19" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
       <c r="U20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
@@ -9439,7 +9686,7 @@
         <v>50</v>
       </c>
       <c r="O23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG23" t="s">
         <v>77</v>
@@ -9447,10 +9694,10 @@
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.4">
       <c r="O24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AG24" t="s">
         <v>78</v>
@@ -9466,7 +9713,7 @@
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
       <c r="AG26" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
@@ -9551,29 +9798,29 @@
       <c r="R32" s="17"/>
     </row>
     <row r="33" spans="11:33" x14ac:dyDescent="0.4">
-      <c r="T33" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
+      <c r="T33" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
     </row>
     <row r="34" spans="11:33" x14ac:dyDescent="0.4">
-      <c r="T34" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
+      <c r="T34" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
       <c r="AF34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="11:33" x14ac:dyDescent="0.4">
       <c r="Q35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="11:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -9581,7 +9828,7 @@
         <v>47</v>
       </c>
       <c r="Z37" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="11:33" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -9648,10 +9895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E28B7ED-3B4A-421D-ABDD-92E214B58BD1}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9662,7 +9909,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -9686,10 +9933,10 @@
         <v>43997</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -9697,10 +9944,10 @@
         <v>43998</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -9708,10 +9955,10 @@
         <v>43999</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -9719,20 +9966,20 @@
         <v>44025</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -9740,20 +9987,25 @@
         <v>44027</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9773,8 +10025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD15DD-46C1-40CF-AF02-CB4C9657D8F8}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9791,42 +10043,38 @@
     <row r="2" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
       <c r="M2" s="26"/>
-      <c r="P2" s="38" t="s">
-        <v>113</v>
-      </c>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19"/>
       <c r="M3" s="26"/>
-      <c r="Q3" s="38" t="s">
-        <v>114</v>
-      </c>
+      <c r="Q3" s="38"/>
       <c r="AD3" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG3" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH3" s="48"/>
+        <v>164</v>
+      </c>
+      <c r="AG3" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH3" s="51"/>
       <c r="AK3" s="38" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19"/>
       <c r="M4" s="31"/>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="AG4" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH4" s="51"/>
       <c r="AK4" s="38" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9841,10 +10089,10 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -9853,36 +10101,34 @@
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="L6" s="33">
         <v>2</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N6" s="36">
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="T6" s="2"/>
       <c r="W6" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X6" s="26"/>
       <c r="Y6" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="33">
         <v>3</v>
@@ -9892,10 +10138,10 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="X7" s="26"/>
       <c r="Y7" s="54"/>
@@ -9904,10 +10150,10 @@
     </row>
     <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L8" s="33">
         <v>4</v>
@@ -9917,21 +10163,21 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W8" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X8" s="26"/>
       <c r="Y8" s="52" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="52"/>
       <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K9" s="2" t="s">
-        <v>91</v>
+      <c r="K9" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="L9" s="33">
         <v>5</v>
@@ -9940,11 +10186,11 @@
       <c r="N9" s="36">
         <v>14</v>
       </c>
-      <c r="O9" t="s">
-        <v>90</v>
+      <c r="O9" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
@@ -9953,10 +10199,10 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>169</v>
       </c>
       <c r="L10" s="33">
         <v>6</v>
@@ -9966,12 +10212,12 @@
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="K11" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" s="33">
         <v>7</v>
@@ -9981,12 +10227,12 @@
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="K12" s="2" t="s">
-        <v>86</v>
+      <c r="K12" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="L12" s="33">
         <v>8</v>
@@ -9995,14 +10241,14 @@
       <c r="N12" s="36">
         <v>11</v>
       </c>
-      <c r="O12" t="s">
-        <v>87</v>
+      <c r="O12" s="42" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>110</v>
+      <c r="K13" s="58" t="s">
+        <v>174</v>
       </c>
       <c r="L13" s="34">
         <v>9</v>
@@ -10012,24 +10258,33 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="H16" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="R16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B17" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="G19" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="48"/>
+      <c r="G19" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="51"/>
       <c r="V19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10294,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="G19:H19"/>
@@ -10047,9 +10302,11 @@
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="Y6:AA7"/>
     <mergeCell ref="M6:M13"/>
+    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>